--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixOpenSourceLLM\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D9053F-56BF-4902-8D9A-96BFAEBEC1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFA021-D87C-415E-BBE0-17D34FEF04D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -73,64 +85,145 @@
     <t>CustomerComplaint</t>
   </si>
   <si>
-    <t xml:space="preserve">Loop, incorrect shortnames and numeric values </t>
-  </si>
-  <si>
-    <t>Incorrect shortnames</t>
-  </si>
-  <si>
     <t>Incorrect format</t>
   </si>
   <si>
     <t>Incorrect format, and uncommented text</t>
   </si>
   <si>
-    <t>Incorrect serializations (use of end dots)</t>
-  </si>
-  <si>
-    <t>Incorrect serializations (use of end dots, semicolons, shortnames)</t>
-  </si>
-  <si>
     <t>Incorrect rdf/xml serialization</t>
   </si>
   <si>
-    <t>Uncommented text and incorrect owl:Ontology declaration</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (blank nodes in properties)</t>
-  </si>
-  <si>
     <t>Uncommented text</t>
   </si>
   <si>
-    <t>Uncommented text and prefix used but not declared</t>
-  </si>
-  <si>
-    <t>Incorrect serializations (shortnames and number of elements in the triples)</t>
-  </si>
-  <si>
-    <t>Incorrect serializations (missing end dots, prefixes)</t>
-  </si>
-  <si>
-    <t>Incorrect use of shortnames</t>
-  </si>
-  <si>
-    <t>Incorrect IDs (with spaces)</t>
-  </si>
-  <si>
-    <t>Incorrect shortnames and prefix declarations</t>
-  </si>
-  <si>
-    <t>Incorrect restriction declaration</t>
-  </si>
-  <si>
-    <t>Incorrect serializations (prefix declarations, use of shortnames)</t>
-  </si>
-  <si>
-    <t>Missing end dots in the prefix declarations</t>
-  </si>
-  <si>
-    <t>Prefix not defined</t>
+    <t>Llama-2-13b</t>
+  </si>
+  <si>
+    <t>Llama-2-13b-4bits</t>
+  </si>
+  <si>
+    <t>Llama-2-13b-8bits</t>
+  </si>
+  <si>
+    <t>Uncommented text and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames and dots), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements, shortnames and dots), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements, and dots)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (shortnames, dots, URIs)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (shortnames, dots, URIs), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, and dots), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements, shortnames, and dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements and ending loop), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (loop,  shortnames, IDs, and numeric values)</t>
+  </si>
+  <si>
+    <t>Llama-3-8b-4bits</t>
+  </si>
+  <si>
+    <t>Llama-3-8b-8bits</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, and shortnames)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements and dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, prefix used but not defined)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (shortnames)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, prefix and owl:Ontology declarations), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (blank nodes declarations)</t>
+  </si>
+  <si>
+    <t>Uncommented text, and prefix used but not declared</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (missing end dots in the prefix declarations)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (loop at the end), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefix not defined)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (missing end dots, prefix not defined, sintaxis error)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (shortnames, and wrong URIs)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (shortnames, wrong URIs, and number of elements in the triples)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements in the triples, IDs with spaces, and wrong URIs)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots, shortnames, wrong URIs, prefix used but not declarated)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (restrictions)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefix declarations, number of elements, use of shortnames)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations, wrong IDs)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (shortnames, IDs and dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, loop at the end, wrong URIs)</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements in the triples, ending loop, and wrong URIs), and uncommented text</t>
+  </si>
+  <si>
+    <t>Uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples, wrong URIs) and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples, and wrong URIs)</t>
   </si>
 </sst>
 </file>
@@ -449,11 +542,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -466,7 +557,7 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -488,8 +579,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -511,120 +605,291 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -635,15 +900,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.109375" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
@@ -680,140 +945,617 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A4901-DEA4-48E6-8612-7D3F41750B47}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixOpenSourceLLM\base-llm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CFA021-D87C-415E-BBE0-17D34FEF04D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4D7F5-7F15-4726-BC70-58F7BC7D0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -61,24 +61,12 @@
     <t>LLM model</t>
   </si>
   <si>
-    <t>Llama-2-7b</t>
-  </si>
-  <si>
-    <t>Llama-2-70b</t>
-  </si>
-  <si>
     <t>Llama-3-8b</t>
   </si>
   <si>
-    <t>Llama-3-70b</t>
-  </si>
-  <si>
     <t>Mistral-7b</t>
   </si>
   <si>
-    <t>Mixtral</t>
-  </si>
-  <si>
     <t>BrazilianE-commerce</t>
   </si>
   <si>
@@ -106,36 +94,12 @@
     <t>Llama-2-13b-8bits</t>
   </si>
   <si>
-    <t>Uncommented text and wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, shortnames and dots), and uncommented text</t>
-  </si>
-  <si>
-    <t>Incorrect format and serialization (number of elements, shortnames and dots), and uncommented text</t>
-  </si>
-  <si>
     <t>Incorrect format and serialization (number of elements, and dots)</t>
   </si>
   <si>
-    <t>Incorrect format and serialization (shortnames, dots, URIs)</t>
-  </si>
-  <si>
-    <t>Incorrect format and serialization (shortnames, dots, URIs), and uncommented text</t>
-  </si>
-  <si>
     <t>Incorrect serialization (number of elements, shortnames, and dots), and uncommented text</t>
   </si>
   <si>
-    <t>Incorrect format and serialization (number of elements, shortnames, and dots)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, shortnames, dots), and uncommented text</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements and ending loop), and uncommented text</t>
-  </si>
-  <si>
     <t>Incorrect serialization (loop,  shortnames, IDs, and numeric values)</t>
   </si>
   <si>
@@ -178,9 +142,6 @@
     <t>Incorrect serialization (missing end dots in the prefix declarations)</t>
   </si>
   <si>
-    <t>Incorrect serialization (loop at the end), and uncommented text</t>
-  </si>
-  <si>
     <t>Incorrect serialization (prefix not defined)</t>
   </si>
   <si>
@@ -208,22 +169,49 @@
     <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations, wrong IDs)</t>
   </si>
   <si>
-    <t>Incorrect format and serialization (shortnames, IDs and dots)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, loop at the end, wrong URIs)</t>
-  </si>
-  <si>
-    <t>Incorrect format and serialization (number of elements in the triples, ending loop, and wrong URIs), and uncommented text</t>
-  </si>
-  <si>
     <t>Uncommented text, and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements in the triples, wrong URIs) and uncommented text</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements in the triples, and wrong URIs)</t>
+    <t>Incorrect serialization (number of elements, loop at the end), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots), uncommented text,  and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, and ending loop), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Llama-2-7b-8bits</t>
+  </si>
+  <si>
+    <t>Llama-2-70b-4bits</t>
+  </si>
+  <si>
+    <t>Llama-3-70b-4bits</t>
+  </si>
+  <si>
+    <t>Mixtral-8-7b-4bits</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples), uncommented text, and  wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples, ending loop), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect format and serialization (number of elements, shortnames, and dots), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, and dots), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (loop at the end), uncommented text, and wrong URIs</t>
   </si>
 </sst>
 </file>
@@ -544,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -571,21 +559,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -611,7 +599,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -637,7 +625,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -663,7 +651,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -689,7 +677,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -715,7 +703,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -741,7 +729,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -764,7 +752,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -790,7 +778,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -816,7 +804,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -842,7 +830,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -868,7 +856,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -902,9 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -931,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -942,197 +928,197 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -1141,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1149,48 +1135,48 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1230,21 +1216,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1270,7 +1256,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1282,21 +1268,21 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1308,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1317,12 +1303,12 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1348,7 +1334,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1374,7 +1360,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1400,7 +1386,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1426,7 +1412,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1452,7 +1438,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1478,7 +1464,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1504,7 +1490,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1530,7 +1516,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1542,16 +1528,16 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4D7F5-7F15-4726-BC70-58F7BC7D0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBB887-B65E-4DB0-8720-4D730FDD2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>Incorrect serialization (number of elements, shortnames, and dots), and uncommented text</t>
   </si>
   <si>
-    <t>Incorrect serialization (loop,  shortnames, IDs, and numeric values)</t>
-  </si>
-  <si>
     <t>Llama-3-8b-4bits</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Incorrect serialization (loop at the end), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (loop, shortnames, IDs, and numeric values), and wrong URIs</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -568,12 +570,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -677,7 +679,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -703,7 +705,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -729,7 +731,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -778,7 +780,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -830,7 +832,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -856,7 +858,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -890,7 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -928,7 +932,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -954,13 +958,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -969,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -977,22 +981,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1003,16 +1007,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1020,10 +1024,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1043,7 +1047,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1052,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1061,30 +1065,30 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1092,19 +1096,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1112,22 +1116,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1138,45 +1142,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A4901-DEA4-48E6-8612-7D3F41750B47}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1225,12 +1231,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>7</v>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBB887-B65E-4DB0-8720-4D730FDD2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F8FD46-2C44-4195-9A1D-217D81608421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -109,15 +109,9 @@
     <t>Incorrect serialization (dots)</t>
   </si>
   <si>
-    <t>Incorrect serialization (dots, and shortnames)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (number of elements)</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements and dots)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (dots, prefix used but not defined)</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
     <t>Mixtral-8-7b-4bits</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements in the triples), uncommented text, and  wrong URIs</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements in the triples, ending loop), uncommented text, and wrong URIs</t>
-  </si>
-  <si>
     <t>Incorrect format and serialization (number of elements, shortnames, and dots), and wrong URIs</t>
   </si>
   <si>
@@ -212,6 +200,24 @@
   </si>
   <si>
     <t>Incorrect serialization (loop, shortnames, IDs, and numeric values), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, ending loop), uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements), uncommented text, and  wrong URIs</t>
+  </si>
+  <si>
+    <t>Wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (missing end dots in the prefix declarations), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots, prefix declaration), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (dots, and shortnames), and wrong URIs</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,12 +576,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -679,7 +685,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -748,6 +754,9 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
@@ -780,7 +789,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -832,7 +841,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -858,7 +867,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -893,7 +902,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +941,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -958,13 +967,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -981,22 +990,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1007,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1024,10 +1033,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1056,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1073,22 +1082,22 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1108,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1116,22 +1125,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>5</v>
@@ -1142,45 +1151,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1203,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,12 +1240,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1340,7 +1349,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1444,7 +1453,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1496,7 +1505,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1522,7 +1531,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>7</v>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F8FD46-2C44-4195-9A1D-217D81608421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF49ED6-0B62-4FCE-BC2E-99DC4B10D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Incorrect serialization (blank nodes declarations)</t>
   </si>
   <si>
-    <t>Uncommented text, and prefix used but not declared</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Incorrect serialization (dots, and shortnames), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefix not defined), and uncommented text</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,12 +576,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -967,13 +967,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,22 +990,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1065,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1085,10 +1085,10 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -1097,7 +1097,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -1137,13 +1137,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1151,45 +1151,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1202,9 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A4901-DEA4-48E6-8612-7D3F41750B47}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1240,12 +1238,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1349,7 +1347,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1453,7 +1451,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1505,7 +1503,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1531,7 +1529,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>7</v>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF49ED6-0B62-4FCE-BC2E-99DC4B10D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB9C46-C08B-4C6C-BEDB-0852374E1828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="62">
   <si>
     <t>AirlinesCustomerSatisfaction</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Llama-2-13b-8bits</t>
   </si>
   <si>
-    <t>Incorrect format and serialization (number of elements, and dots)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (number of elements, shortnames, and dots), and uncommented text</t>
   </si>
   <si>
@@ -133,30 +130,12 @@
     <t>Incorrect serialization (prefix not defined)</t>
   </si>
   <si>
-    <t>Incorrect serialization (missing end dots, prefix not defined, sintaxis error)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (shortnames, and wrong URIs)</t>
-  </si>
-  <si>
-    <t>Incorrect format and serialization (shortnames, wrong URIs, and number of elements in the triples)</t>
-  </si>
-  <si>
-    <t>Incorrect format and serialization (number of elements in the triples, IDs with spaces, and wrong URIs)</t>
-  </si>
-  <si>
-    <t>Incorrect serialization (number of elements, dots, shortnames, wrong URIs, prefix used but not declarated)</t>
-  </si>
-  <si>
     <t>Incorrect serialization (restrictions)</t>
   </si>
   <si>
     <t>Incorrect serialization (prefix declarations, number of elements, use of shortnames)</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations, wrong IDs)</t>
-  </si>
-  <si>
     <t>Uncommented text, and wrong URIs</t>
   </si>
   <si>
@@ -218,6 +197,33 @@
   </si>
   <si>
     <t>Incorrect serialization (prefix not defined), and uncommented text</t>
+  </si>
+  <si>
+    <t>Incorrect format, uncommented text, and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (prefix not defined), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (shortnames, and number of elements in the triples), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (missing end dots, prefix not defined, sintaxis error), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (shortnames), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements in the triples, IDs with spaces), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, and dots)</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, dots, shortnames, prefix used but not declarated), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations), and wrong IDs</t>
   </si>
 </sst>
 </file>
@@ -253,9 +259,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -576,12 +581,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -685,7 +690,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -711,7 +716,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -737,7 +742,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -789,7 +794,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -810,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -841,7 +846,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -867,7 +872,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -879,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -888,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +946,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -967,22 +972,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,22 +995,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1016,27 +1021,27 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1056,16 +1061,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1074,30 +1079,30 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,19 +1110,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1125,25 +1130,25 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1151,45 +1156,45 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A4901-DEA4-48E6-8612-7D3F41750B47}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1238,12 +1243,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1347,7 +1352,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1373,7 +1378,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1399,7 +1404,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1451,7 +1456,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1492,18 +1497,18 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1529,7 +1534,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1544,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB9C46-C08B-4C6C-BEDB-0852374E1828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E4E20A-6C72-4B26-B7C7-9AC3EB259979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Incorrect serialization (restrictions)</t>
   </si>
   <si>
-    <t>Incorrect serialization (prefix declarations, number of elements, use of shortnames)</t>
-  </si>
-  <si>
     <t>Uncommented text, and wrong URIs</t>
   </si>
   <si>
@@ -223,7 +220,10 @@
     <t>Incorrect serialization (number of elements, dots, shortnames, prefix used but not declarated), and wrong URIs</t>
   </si>
   <si>
-    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations), and wrong IDs</t>
+    <t>Incorrect serialization (prefix declarations, number of elements, use of shortnames), and wrong URIs</t>
+  </si>
+  <si>
+    <t>Incorrect serialization (number of elements, shortnames, dots, prefix declarations)</t>
   </si>
 </sst>
 </file>
@@ -259,10 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -586,7 +585,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -690,7 +689,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -794,7 +793,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -846,7 +845,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -906,9 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -946,7 +943,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -972,22 +969,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -995,22 +992,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1038,10 +1035,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1067,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1090,10 +1087,10 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1122,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -1145,10 +1142,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1156,42 +1153,42 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>61</v>
@@ -1248,7 +1245,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>

--- a/base-llm/executability.xlsx
+++ b/base-llm/executability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E4E20A-6C72-4B26-B7C7-9AC3EB259979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCFE47-5C7E-4952-BF6E-F799449D592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -905,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289EBE8-59E9-4692-9747-E1DF5C29C5F7}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
